--- a/examples/lusid/relationships/_data/custodians.xlsx
+++ b/examples/lusid/relationships/_data/custodians.xlsx
@@ -5,10 +5,10 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\dev\code\gl\luminesce-examples\examples\lusid\relationships\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\dev\code\gl\luminesce-examples\examples\lusid\relationships\_data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{42716F3D-826C-432F-9F62-5A497AFBE918}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{1D81E574-96D2-4E1A-8656-F9B45DC5A7FA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-96" yWindow="-96" windowWidth="23232" windowHeight="12552" xr2:uid="{8D9DC3B0-DD47-4D5C-85DE-281CAAEDF384}"/>
   </bookViews>
@@ -37,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="33" uniqueCount="22">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="37" uniqueCount="24">
   <si>
     <t>custodian_name</t>
   </si>
@@ -54,15 +54,6 @@
     <t>JP</t>
   </si>
   <si>
-    <t>TT Bank Plc</t>
-  </si>
-  <si>
-    <t>NT Bank Plc</t>
-  </si>
-  <si>
-    <t>JP Bank Plc</t>
-  </si>
-  <si>
     <t>V2QJOKCKLGVVUW8YOD8V</t>
   </si>
   <si>
@@ -103,6 +94,21 @@
   </si>
   <si>
     <t>USD</t>
+  </si>
+  <si>
+    <t>TT BANK PLC</t>
+  </si>
+  <si>
+    <t>NT BANK PLC</t>
+  </si>
+  <si>
+    <t>JP BANK PLC</t>
+  </si>
+  <si>
+    <t>country_code</t>
+  </si>
+  <si>
+    <t>UK</t>
   </si>
 </sst>
 </file>
@@ -460,10 +466,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C2F8960E-A95D-47A4-87B6-70EEFC4BD900}">
-  <dimension ref="A1:C4"/>
+  <dimension ref="A1:D4"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F13" sqref="F13"/>
+      <selection activeCell="F4" sqref="F4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.55000000000000004"/>
@@ -471,9 +477,10 @@
     <col min="1" max="1" width="13.15625" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="13.7890625" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="23.578125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="11.578125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A1" t="s">
         <v>1</v>
       </c>
@@ -481,40 +488,52 @@
         <v>0</v>
       </c>
       <c r="C1" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+        <v>8</v>
+      </c>
+      <c r="D1" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A2" t="s">
         <v>2</v>
       </c>
       <c r="B2" t="s">
+        <v>19</v>
+      </c>
+      <c r="C2" t="s">
         <v>5</v>
       </c>
-      <c r="C2" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+      <c r="D2" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A3" t="s">
         <v>3</v>
       </c>
       <c r="B3" t="s">
+        <v>20</v>
+      </c>
+      <c r="C3" t="s">
         <v>6</v>
       </c>
-      <c r="C3" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+      <c r="D3" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A4" t="s">
         <v>4</v>
       </c>
       <c r="B4" t="s">
+        <v>21</v>
+      </c>
+      <c r="C4" t="s">
         <v>7</v>
       </c>
-      <c r="C4" t="s">
-        <v>10</v>
+      <c r="D4" t="s">
+        <v>23</v>
       </c>
     </row>
   </sheetData>
@@ -528,7 +547,7 @@
   <dimension ref="A1:C7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="H11" sqref="H11"/>
+      <selection activeCell="F18" sqref="F18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.55000000000000004"/>
@@ -543,10 +562,10 @@
         <v>1</v>
       </c>
       <c r="B1" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="C1" t="s">
-        <v>19</v>
+        <v>16</v>
       </c>
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.55000000000000004">
@@ -554,10 +573,10 @@
         <v>2</v>
       </c>
       <c r="B2" t="s">
-        <v>13</v>
+        <v>10</v>
       </c>
       <c r="C2" t="s">
-        <v>20</v>
+        <v>17</v>
       </c>
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.55000000000000004">
@@ -565,10 +584,10 @@
         <v>2</v>
       </c>
       <c r="B3" t="s">
-        <v>14</v>
+        <v>11</v>
       </c>
       <c r="C3" t="s">
-        <v>20</v>
+        <v>17</v>
       </c>
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.55000000000000004">
@@ -576,10 +595,10 @@
         <v>2</v>
       </c>
       <c r="B4" t="s">
-        <v>15</v>
+        <v>12</v>
       </c>
       <c r="C4" t="s">
-        <v>21</v>
+        <v>18</v>
       </c>
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.55000000000000004">
@@ -587,10 +606,10 @@
         <v>3</v>
       </c>
       <c r="B5" t="s">
-        <v>16</v>
+        <v>13</v>
       </c>
       <c r="C5" t="s">
-        <v>21</v>
+        <v>18</v>
       </c>
     </row>
     <row r="6" spans="1:3" x14ac:dyDescent="0.55000000000000004">
@@ -598,10 +617,10 @@
         <v>3</v>
       </c>
       <c r="B6" t="s">
+        <v>14</v>
+      </c>
+      <c r="C6" t="s">
         <v>17</v>
-      </c>
-      <c r="C6" t="s">
-        <v>20</v>
       </c>
     </row>
     <row r="7" spans="1:3" x14ac:dyDescent="0.55000000000000004">
@@ -609,10 +628,10 @@
         <v>3</v>
       </c>
       <c r="B7" t="s">
-        <v>18</v>
+        <v>15</v>
       </c>
       <c r="C7" t="s">
-        <v>20</v>
+        <v>17</v>
       </c>
     </row>
   </sheetData>
